--- a/state_results/Rivers/MangawheroatDOCHeadquarters_5ea518c1ad.xlsx
+++ b/state_results/Rivers/MangawheroatDOCHeadquarters_5ea518c1ad.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U338"/>
+  <dimension ref="A1:U359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,7 +651,7 @@
         <v>0.011</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0116749584529877</v>
+        <v>0.0116763484048315</v>
       </c>
       <c r="H3" t="n">
         <v>0.042</v>
@@ -732,7 +732,7 @@
         <v>0.011</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0116749584529877</v>
+        <v>0.0116763484048315</v>
       </c>
       <c r="H4" t="n">
         <v>0.042</v>
@@ -813,7 +813,7 @@
         <v>0.0146</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0158924708853278</v>
+        <v>0.0158956392747479</v>
       </c>
       <c r="H5" t="n">
         <v>0.0544332472351369</v>
@@ -894,7 +894,7 @@
         <v>0.0146</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0158924708853278</v>
+        <v>0.0158956392747479</v>
       </c>
       <c r="H6" t="n">
         <v>0.0544332472351369</v>
@@ -975,7 +975,7 @@
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0263149630730318</v>
+        <v>0.0263683951622568</v>
       </c>
       <c r="H7" t="n">
         <v>0.41</v>
@@ -986,7 +986,7 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>0.00245</v>
+        <v>0.0026</v>
       </c>
       <c r="M7" t="n">
         <v>0.05</v>
@@ -1056,7 +1056,7 @@
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0263149630730318</v>
+        <v>0.0263683951622568</v>
       </c>
       <c r="H8" t="n">
         <v>0.41</v>
@@ -1067,7 +1067,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>0.00245</v>
+        <v>0.0026</v>
       </c>
       <c r="M8" t="n">
         <v>0.05</v>
@@ -1133,7 +1133,7 @@
         <v>0.045</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0564578999399852</v>
+        <v>0.0564703117845348</v>
       </c>
       <c r="H9" t="n">
         <v>0.45</v>
@@ -1210,7 +1210,7 @@
         <v>0.045</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0564578999399852</v>
+        <v>0.0564703117845348</v>
       </c>
       <c r="H10" t="n">
         <v>0.45</v>
@@ -1372,7 +1372,7 @@
         <v>0.012</v>
       </c>
       <c r="G12" t="n">
-        <v>0.012347281365381</v>
+        <v>0.0123486216760875</v>
       </c>
       <c r="H12" t="n">
         <v>0.042</v>
@@ -1453,7 +1453,7 @@
         <v>0.012</v>
       </c>
       <c r="G13" t="n">
-        <v>0.012347281365381</v>
+        <v>0.0123486216760875</v>
       </c>
       <c r="H13" t="n">
         <v>0.042</v>
@@ -1534,7 +1534,7 @@
         <v>14</v>
       </c>
       <c r="G14" t="n">
-        <v>20.9379289910387</v>
+        <v>20.9358809118191</v>
       </c>
       <c r="H14" t="n">
         <v>105</v>
@@ -1619,7 +1619,7 @@
         <v>14</v>
       </c>
       <c r="G15" t="n">
-        <v>20.9379289910387</v>
+        <v>20.9358809118191</v>
       </c>
       <c r="H15" t="n">
         <v>105</v>
@@ -1704,7 +1704,7 @@
         <v>14</v>
       </c>
       <c r="G16" t="n">
-        <v>20.9379289910387</v>
+        <v>20.9358809118191</v>
       </c>
       <c r="H16" t="n">
         <v>105</v>
@@ -1789,7 +1789,7 @@
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>20.9379289910387</v>
+        <v>20.9358809118191</v>
       </c>
       <c r="H17" t="n">
         <v>105</v>
@@ -1951,7 +1951,7 @@
         <v>0.01055</v>
       </c>
       <c r="G19" t="n">
-        <v>0.014314394709698</v>
+        <v>0.0143177587804259</v>
       </c>
       <c r="H19" t="n">
         <v>0.0544332472351369</v>
@@ -2032,7 +2032,7 @@
         <v>0.01055</v>
       </c>
       <c r="G20" t="n">
-        <v>0.014314394709698</v>
+        <v>0.0143177587804259</v>
       </c>
       <c r="H20" t="n">
         <v>0.0544332472351369</v>
@@ -2113,7 +2113,7 @@
         <v>0.01</v>
       </c>
       <c r="G21" t="n">
-        <v>0.026475006720337</v>
+        <v>0.0265375633339513</v>
       </c>
       <c r="H21" t="n">
         <v>0.41</v>
@@ -2124,7 +2124,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>0.00299</v>
+        <v>0.00315</v>
       </c>
       <c r="M21" t="n">
         <v>0.04</v>
@@ -2194,7 +2194,7 @@
         <v>0.01</v>
       </c>
       <c r="G22" t="n">
-        <v>0.026475006720337</v>
+        <v>0.0265375633339513</v>
       </c>
       <c r="H22" t="n">
         <v>0.41</v>
@@ -2205,7 +2205,7 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>0.00299</v>
+        <v>0.00315</v>
       </c>
       <c r="M22" t="n">
         <v>0.04</v>
@@ -2271,7 +2271,7 @@
         <v>0.044</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0539815687678333</v>
+        <v>0.0539948714878438</v>
       </c>
       <c r="H23" t="n">
         <v>0.45</v>
@@ -2348,7 +2348,7 @@
         <v>0.044</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0539815687678333</v>
+        <v>0.0539948714878438</v>
       </c>
       <c r="H24" t="n">
         <v>0.45</v>
@@ -2510,7 +2510,7 @@
         <v>0.013</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0132854122848494</v>
+        <v>0.0132859922650091</v>
       </c>
       <c r="H26" t="n">
         <v>0.042</v>
@@ -2591,7 +2591,7 @@
         <v>0.013</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0132854122848494</v>
+        <v>0.0132859922650091</v>
       </c>
       <c r="H27" t="n">
         <v>0.042</v>
@@ -2672,7 +2672,7 @@
         <v>19</v>
       </c>
       <c r="G28" t="n">
-        <v>26.3287278226636</v>
+        <v>26.3272980386206</v>
       </c>
       <c r="H28" t="n">
         <v>120</v>
@@ -2757,7 +2757,7 @@
         <v>19</v>
       </c>
       <c r="G29" t="n">
-        <v>26.3287278226636</v>
+        <v>26.3272980386206</v>
       </c>
       <c r="H29" t="n">
         <v>120</v>
@@ -2842,7 +2842,7 @@
         <v>19</v>
       </c>
       <c r="G30" t="n">
-        <v>26.3287278226636</v>
+        <v>26.3272980386206</v>
       </c>
       <c r="H30" t="n">
         <v>120</v>
@@ -2927,7 +2927,7 @@
         <v>19</v>
       </c>
       <c r="G31" t="n">
-        <v>26.3287278226636</v>
+        <v>26.3272980386206</v>
       </c>
       <c r="H31" t="n">
         <v>120</v>
@@ -3089,7 +3089,7 @@
         <v>0.00747</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0108345723258995</v>
+        <v>0.0108379363966274</v>
       </c>
       <c r="H33" t="n">
         <v>0.0497175372147025</v>
@@ -3170,7 +3170,7 @@
         <v>0.00747</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0108345723258995</v>
+        <v>0.0108379363966274</v>
       </c>
       <c r="H34" t="n">
         <v>0.0497175372147025</v>
@@ -3251,7 +3251,7 @@
         <v>0.02</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0298543257302166</v>
+        <v>0.0299213981433318</v>
       </c>
       <c r="H35" t="n">
         <v>0.41</v>
@@ -3262,7 +3262,7 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>0.00329</v>
+        <v>0.00345</v>
       </c>
       <c r="M35" t="n">
         <v>0.0498</v>
@@ -3332,7 +3332,7 @@
         <v>0.02</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0298543257302166</v>
+        <v>0.0299213981433318</v>
       </c>
       <c r="H36" t="n">
         <v>0.41</v>
@@ -3343,7 +3343,7 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>0.00329</v>
+        <v>0.00345</v>
       </c>
       <c r="M36" t="n">
         <v>0.0498</v>
@@ -3409,7 +3409,7 @@
         <v>0.044</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0518029973392619</v>
+        <v>0.0518163000592723</v>
       </c>
       <c r="H37" t="n">
         <v>0.45</v>
@@ -3486,7 +3486,7 @@
         <v>0.044</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0518029973392619</v>
+        <v>0.0518163000592723</v>
       </c>
       <c r="H38" t="n">
         <v>0.45</v>
@@ -3648,7 +3648,7 @@
         <v>0.016</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0205260190868696</v>
+        <v>0.0205265888919388</v>
       </c>
       <c r="H40" t="n">
         <v>0.17</v>
@@ -3729,7 +3729,7 @@
         <v>0.016</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0205260190868696</v>
+        <v>0.0205265888919388</v>
       </c>
       <c r="H41" t="n">
         <v>0.17</v>
@@ -3810,7 +3810,7 @@
         <v>18</v>
       </c>
       <c r="G42" t="n">
-        <v>81.26417132053091</v>
+        <v>81.2639030395078</v>
       </c>
       <c r="H42" t="n">
         <v>3100</v>
@@ -3895,7 +3895,7 @@
         <v>18</v>
       </c>
       <c r="G43" t="n">
-        <v>81.26417132053091</v>
+        <v>81.2639030395078</v>
       </c>
       <c r="H43" t="n">
         <v>3100</v>
@@ -3980,7 +3980,7 @@
         <v>18</v>
       </c>
       <c r="G44" t="n">
-        <v>81.26417132053091</v>
+        <v>81.2639030395078</v>
       </c>
       <c r="H44" t="n">
         <v>3100</v>
@@ -4065,7 +4065,7 @@
         <v>18</v>
       </c>
       <c r="G45" t="n">
-        <v>81.26417132053091</v>
+        <v>81.2639030395078</v>
       </c>
       <c r="H45" t="n">
         <v>3100</v>
@@ -4227,7 +4227,7 @@
         <v>0.00506</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0087526332782113</v>
+        <v>0.008758146389048</v>
       </c>
       <c r="H47" t="n">
         <v>0.0534866079803413</v>
@@ -4308,7 +4308,7 @@
         <v>0.00506</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0087526332782113</v>
+        <v>0.008758146389048</v>
       </c>
       <c r="H48" t="n">
         <v>0.0534866079803413</v>
@@ -4386,10 +4386,10 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.01403</v>
+        <v>0.0143</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0208414627023268</v>
+        <v>0.0209217953147659</v>
       </c>
       <c r="H49" t="n">
         <v>0.06</v>
@@ -4400,7 +4400,7 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>0.00516</v>
+        <v>0.00535</v>
       </c>
       <c r="M49" t="n">
         <v>0.04</v>
@@ -4467,10 +4467,10 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.01403</v>
+        <v>0.0143</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0208414627023268</v>
+        <v>0.0209217953147659</v>
       </c>
       <c r="H50" t="n">
         <v>0.06</v>
@@ -4481,7 +4481,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>0.00516</v>
+        <v>0.00535</v>
       </c>
       <c r="M50" t="n">
         <v>0.04</v>
@@ -4547,7 +4547,7 @@
         <v>0.036</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0401996081947788</v>
+        <v>0.0402207034019254</v>
       </c>
       <c r="H51" t="n">
         <v>0.15</v>
@@ -4624,7 +4624,7 @@
         <v>0.036</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0401996081947788</v>
+        <v>0.0402207034019254</v>
       </c>
       <c r="H52" t="n">
         <v>0.15</v>
@@ -4786,7 +4786,7 @@
         <v>0.0165</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0222822410424253</v>
+        <v>0.0222829471052285</v>
       </c>
       <c r="H54" t="n">
         <v>0.17</v>
@@ -4867,7 +4867,7 @@
         <v>0.0165</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0222822410424253</v>
+        <v>0.0222829471052285</v>
       </c>
       <c r="H55" t="n">
         <v>0.17</v>
@@ -4948,7 +4948,7 @@
         <v>20</v>
       </c>
       <c r="G56" t="n">
-        <v>94.63169054935349</v>
+        <v>94.6313581141727</v>
       </c>
       <c r="H56" t="n">
         <v>3100</v>
@@ -5033,7 +5033,7 @@
         <v>20</v>
       </c>
       <c r="G57" t="n">
-        <v>94.63169054935349</v>
+        <v>94.6313581141727</v>
       </c>
       <c r="H57" t="n">
         <v>3100</v>
@@ -5118,7 +5118,7 @@
         <v>20</v>
       </c>
       <c r="G58" t="n">
-        <v>94.63169054935349</v>
+        <v>94.6313581141727</v>
       </c>
       <c r="H58" t="n">
         <v>3100</v>
@@ -5203,7 +5203,7 @@
         <v>20</v>
       </c>
       <c r="G59" t="n">
-        <v>94.63169054935349</v>
+        <v>94.6313581141727</v>
       </c>
       <c r="H59" t="n">
         <v>3100</v>
@@ -5365,7 +5365,7 @@
         <v>0.00439</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0058563019402329</v>
+        <v>0.0058628990769578</v>
       </c>
       <c r="H61" t="n">
         <v>0.0534866079803413</v>
@@ -5446,7 +5446,7 @@
         <v>0.00439</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0058563019402329</v>
+        <v>0.0058628990769578</v>
       </c>
       <c r="H62" t="n">
         <v>0.0534866079803413</v>
@@ -5524,10 +5524,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.01702</v>
+        <v>0.01715</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0208263091411635</v>
+        <v>0.0209047235637906</v>
       </c>
       <c r="H63" t="n">
         <v>0.06</v>
@@ -5538,7 +5538,7 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>0.00565</v>
+        <v>0.00583</v>
       </c>
       <c r="M63" t="n">
         <v>0.04</v>
@@ -5605,10 +5605,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.01702</v>
+        <v>0.01715</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0208263091411635</v>
+        <v>0.0209047235637906</v>
       </c>
       <c r="H64" t="n">
         <v>0.06</v>
@@ -5619,7 +5619,7 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>0.00565</v>
+        <v>0.00583</v>
       </c>
       <c r="M64" t="n">
         <v>0.04</v>
@@ -5685,7 +5685,7 @@
         <v>0.029</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0348284479733409</v>
+        <v>0.0348501086439828</v>
       </c>
       <c r="H65" t="n">
         <v>0.15</v>
@@ -5762,7 +5762,7 @@
         <v>0.029</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0348284479733409</v>
+        <v>0.0348501086439828</v>
       </c>
       <c r="H66" t="n">
         <v>0.15</v>
@@ -6086,7 +6086,7 @@
         <v>10</v>
       </c>
       <c r="G70" t="n">
-        <v>118.736993096184</v>
+        <v>118.736543330939</v>
       </c>
       <c r="H70" t="n">
         <v>3100</v>
@@ -6171,7 +6171,7 @@
         <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>118.736993096184</v>
+        <v>118.736543330939</v>
       </c>
       <c r="H71" t="n">
         <v>3100</v>
@@ -6256,7 +6256,7 @@
         <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>118.736993096184</v>
+        <v>118.736543330939</v>
       </c>
       <c r="H72" t="n">
         <v>3100</v>
@@ -6341,7 +6341,7 @@
         <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>118.736993096184</v>
+        <v>118.736543330939</v>
       </c>
       <c r="H73" t="n">
         <v>3100</v>
@@ -6503,7 +6503,7 @@
         <v>0.00437</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0061823795396915</v>
+        <v>0.0061899851426416</v>
       </c>
       <c r="H75" t="n">
         <v>0.0534866079803413</v>
@@ -6584,7 +6584,7 @@
         <v>0.00437</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0061823795396915</v>
+        <v>0.0061899851426416</v>
       </c>
       <c r="H76" t="n">
         <v>0.0534866079803413</v>
@@ -6665,7 +6665,7 @@
         <v>0.02</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0232501951409136</v>
+        <v>0.0233276789238092</v>
       </c>
       <c r="H77" t="n">
         <v>0.06</v>
@@ -6676,7 +6676,7 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>0.0078</v>
+        <v>0.00801</v>
       </c>
       <c r="M77" t="n">
         <v>0.04</v>
@@ -6746,7 +6746,7 @@
         <v>0.02</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0232501951409136</v>
+        <v>0.0233276789238092</v>
       </c>
       <c r="H78" t="n">
         <v>0.06</v>
@@ -6757,7 +6757,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>0.0078</v>
+        <v>0.00801</v>
       </c>
       <c r="M78" t="n">
         <v>0.04</v>
@@ -6823,7 +6823,7 @@
         <v>0.031</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0376611313494079</v>
+        <v>0.037685131005163</v>
       </c>
       <c r="H79" t="n">
         <v>0.15</v>
@@ -6900,7 +6900,7 @@
         <v>0.031</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0376611313494079</v>
+        <v>0.037685131005163</v>
       </c>
       <c r="H80" t="n">
         <v>0.15</v>
@@ -7062,7 +7062,7 @@
         <v>0.017</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0246845578672016</v>
+        <v>0.0246849402062692</v>
       </c>
       <c r="H82" t="n">
         <v>0.17</v>
@@ -7143,7 +7143,7 @@
         <v>0.017</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0246845578672016</v>
+        <v>0.0246849402062692</v>
       </c>
       <c r="H83" t="n">
         <v>0.17</v>
@@ -7224,7 +7224,7 @@
         <v>20</v>
       </c>
       <c r="G84" t="n">
-        <v>118.002106485177</v>
+        <v>118.002221913845</v>
       </c>
       <c r="H84" t="n">
         <v>3100</v>
@@ -7309,7 +7309,7 @@
         <v>20</v>
       </c>
       <c r="G85" t="n">
-        <v>118.002106485177</v>
+        <v>118.002221913845</v>
       </c>
       <c r="H85" t="n">
         <v>3100</v>
@@ -7394,7 +7394,7 @@
         <v>20</v>
       </c>
       <c r="G86" t="n">
-        <v>118.002106485177</v>
+        <v>118.002221913845</v>
       </c>
       <c r="H86" t="n">
         <v>3100</v>
@@ -7479,7 +7479,7 @@
         <v>20</v>
       </c>
       <c r="G87" t="n">
-        <v>118.002106485177</v>
+        <v>118.002221913845</v>
       </c>
       <c r="H87" t="n">
         <v>3100</v>
@@ -7638,10 +7638,10 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.00219</v>
+        <v>0.00226</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0047662658210292</v>
+        <v>0.0047844018145579</v>
       </c>
       <c r="H89" t="n">
         <v>0.0534866079803413</v>
@@ -7652,7 +7652,7 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
-        <v>0.00219</v>
+        <v>0.00226</v>
       </c>
       <c r="M89" t="n">
         <v>0.00761</v>
@@ -7719,10 +7719,10 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.00219</v>
+        <v>0.00226</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0047662658210292</v>
+        <v>0.0047844018145579</v>
       </c>
       <c r="H90" t="n">
         <v>0.0534866079803413</v>
@@ -7733,7 +7733,7 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
-        <v>0.00219</v>
+        <v>0.00226</v>
       </c>
       <c r="M90" t="n">
         <v>0.00761</v>
@@ -7799,7 +7799,7 @@
         <v>0.016</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0291633071671963</v>
+        <v>0.0291831002818856</v>
       </c>
       <c r="H91" t="n">
         <v>0.15</v>
@@ -7876,7 +7876,7 @@
         <v>0.016</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0291633071671963</v>
+        <v>0.0291831002818856</v>
       </c>
       <c r="H92" t="n">
         <v>0.15</v>
@@ -8038,7 +8038,7 @@
         <v>0.016</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0248274150100587</v>
+        <v>0.0248277973491263</v>
       </c>
       <c r="H94" t="n">
         <v>0.17</v>
@@ -8119,7 +8119,7 @@
         <v>0.016</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0248274150100587</v>
+        <v>0.0248277973491263</v>
       </c>
       <c r="H95" t="n">
         <v>0.17</v>
@@ -8200,7 +8200,7 @@
         <v>10</v>
       </c>
       <c r="G96" t="n">
-        <v>109.9907753253</v>
+        <v>109.991695750757</v>
       </c>
       <c r="H96" t="n">
         <v>3100</v>
@@ -8285,7 +8285,7 @@
         <v>10</v>
       </c>
       <c r="G97" t="n">
-        <v>109.9907753253</v>
+        <v>109.991695750757</v>
       </c>
       <c r="H97" t="n">
         <v>3100</v>
@@ -8370,7 +8370,7 @@
         <v>10</v>
       </c>
       <c r="G98" t="n">
-        <v>109.9907753253</v>
+        <v>109.991695750757</v>
       </c>
       <c r="H98" t="n">
         <v>3100</v>
@@ -8455,7 +8455,7 @@
         <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>109.9907753253</v>
+        <v>109.991695750757</v>
       </c>
       <c r="H99" t="n">
         <v>3100</v>
@@ -8614,10 +8614,10 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.00133</v>
+        <v>0.00136</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0035919129829495</v>
+        <v>0.0036151737192178</v>
       </c>
       <c r="H101" t="n">
         <v>0.0534866079803413</v>
@@ -8628,7 +8628,7 @@
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
-        <v>0.00142</v>
+        <v>0.00144</v>
       </c>
       <c r="M101" t="n">
         <v>0.0047</v>
@@ -8695,10 +8695,10 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.00133</v>
+        <v>0.00136</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0035919129829495</v>
+        <v>0.0036151737192178</v>
       </c>
       <c r="H102" t="n">
         <v>0.0534866079803413</v>
@@ -8709,7 +8709,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
-        <v>0.00142</v>
+        <v>0.00144</v>
       </c>
       <c r="M102" t="n">
         <v>0.0047</v>
@@ -8772,10 +8772,10 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0.01488</v>
+        <v>0.01499</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0207347357386248</v>
+        <v>0.0207545288533142</v>
       </c>
       <c r="H103" t="n">
         <v>0.15</v>
@@ -8786,7 +8786,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
-        <v>0.01053</v>
+        <v>0.0106</v>
       </c>
       <c r="M103" t="n">
         <v>0.02865</v>
@@ -8849,10 +8849,10 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0.01488</v>
+        <v>0.01499</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0207347357386248</v>
+        <v>0.0207545288533142</v>
       </c>
       <c r="H104" t="n">
         <v>0.15</v>
@@ -8863,7 +8863,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
-        <v>0.01053</v>
+        <v>0.0106</v>
       </c>
       <c r="M104" t="n">
         <v>0.02865</v>
@@ -8933,10 +8933,10 @@
         <v>3.62</v>
       </c>
       <c r="G105" t="n">
-        <v>3.71508308666344</v>
+        <v>3.73878928733373</v>
       </c>
       <c r="H105" t="n">
-        <v>8.567575686566769</v>
+        <v>9.302467907345781</v>
       </c>
       <c r="I105" t="n">
         <v>7.39</v>
@@ -9014,7 +9014,7 @@
         <v>0.013</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0137035826377918</v>
+        <v>0.0137040381953768</v>
       </c>
       <c r="H106" t="n">
         <v>0.035</v>
@@ -9095,7 +9095,7 @@
         <v>0.013</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0137035826377918</v>
+        <v>0.0137040381953768</v>
       </c>
       <c r="H107" t="n">
         <v>0.035</v>
@@ -9176,7 +9176,7 @@
         <v>11</v>
       </c>
       <c r="G108" t="n">
-        <v>17.5546320895738</v>
+        <v>17.5541511360706</v>
       </c>
       <c r="H108" t="n">
         <v>100</v>
@@ -9261,7 +9261,7 @@
         <v>11</v>
       </c>
       <c r="G109" t="n">
-        <v>17.5546320895738</v>
+        <v>17.5541511360706</v>
       </c>
       <c r="H109" t="n">
         <v>100</v>
@@ -9346,7 +9346,7 @@
         <v>11</v>
       </c>
       <c r="G110" t="n">
-        <v>17.5546320895738</v>
+        <v>17.5541511360706</v>
       </c>
       <c r="H110" t="n">
         <v>100</v>
@@ -9431,7 +9431,7 @@
         <v>11</v>
       </c>
       <c r="G111" t="n">
-        <v>17.5546320895738</v>
+        <v>17.5541511360706</v>
       </c>
       <c r="H111" t="n">
         <v>100</v>
@@ -9590,10 +9590,10 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0.00142</v>
+        <v>0.00144</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0028583236073563</v>
+        <v>0.0028857837461034</v>
       </c>
       <c r="H113" t="n">
         <v>0.0118402395355382</v>
@@ -9604,10 +9604,10 @@
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
-        <v>0.00228</v>
+        <v>0.00233</v>
       </c>
       <c r="M113" t="n">
-        <v>0.00491</v>
+        <v>0.005</v>
       </c>
       <c r="N113" t="n">
         <v>0.00831</v>
@@ -9671,10 +9671,10 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0.00142</v>
+        <v>0.00144</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0028583236073563</v>
+        <v>0.0028857837461034</v>
       </c>
       <c r="H114" t="n">
         <v>0.0118402395355382</v>
@@ -9685,10 +9685,10 @@
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
-        <v>0.00228</v>
+        <v>0.00233</v>
       </c>
       <c r="M114" t="n">
-        <v>0.00491</v>
+        <v>0.005</v>
       </c>
       <c r="N114" t="n">
         <v>0.00831</v>
@@ -9751,7 +9751,7 @@
         <v>0.016</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0180409503112997</v>
+        <v>0.0180434220757218</v>
       </c>
       <c r="H115" t="n">
         <v>0.049</v>
@@ -9828,7 +9828,7 @@
         <v>0.016</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0180409503112997</v>
+        <v>0.0180434220757218</v>
       </c>
       <c r="H116" t="n">
         <v>0.049</v>
@@ -9909,10 +9909,10 @@
         <v>3.5</v>
       </c>
       <c r="G117" t="n">
-        <v>3.47969696796504</v>
+        <v>3.49762116847185</v>
       </c>
       <c r="H117" t="n">
-        <v>8.567575686566769</v>
+        <v>9.302467907345781</v>
       </c>
       <c r="I117" t="n">
         <v>6.29</v>
@@ -9990,7 +9990,7 @@
         <v>0.013</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0127405715076315</v>
+        <v>0.0127407590836778</v>
       </c>
       <c r="H118" t="n">
         <v>0.035</v>
@@ -10071,7 +10071,7 @@
         <v>0.013</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0127405715076315</v>
+        <v>0.0127407590836778</v>
       </c>
       <c r="H119" t="n">
         <v>0.035</v>
@@ -10152,7 +10152,7 @@
         <v>10</v>
       </c>
       <c r="G120" t="n">
-        <v>17.4768536837252</v>
+        <v>17.4764955268611</v>
       </c>
       <c r="H120" t="n">
         <v>100</v>
@@ -10237,7 +10237,7 @@
         <v>10</v>
       </c>
       <c r="G121" t="n">
-        <v>17.4768536837252</v>
+        <v>17.4764955268611</v>
       </c>
       <c r="H121" t="n">
         <v>100</v>
@@ -10322,7 +10322,7 @@
         <v>10</v>
       </c>
       <c r="G122" t="n">
-        <v>17.4768536837252</v>
+        <v>17.4764955268611</v>
       </c>
       <c r="H122" t="n">
         <v>100</v>
@@ -10407,7 +10407,7 @@
         <v>10</v>
       </c>
       <c r="G123" t="n">
-        <v>17.4768536837252</v>
+        <v>17.4764955268611</v>
       </c>
       <c r="H123" t="n">
         <v>100</v>
@@ -10566,10 +10566,10 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0.00228</v>
+        <v>0.00233</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0035153449972928</v>
+        <v>0.0035382604143138</v>
       </c>
       <c r="H125" t="n">
         <v>0.0118402395355382</v>
@@ -10647,10 +10647,10 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0.00228</v>
+        <v>0.00233</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0035153449972928</v>
+        <v>0.0035382604143138</v>
       </c>
       <c r="H126" t="n">
         <v>0.0118402395355382</v>
@@ -10728,10 +10728,10 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0.00698</v>
+        <v>0.007</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0097290596689857</v>
+        <v>0.0097472748673725</v>
       </c>
       <c r="H127" t="n">
         <v>0.037</v>
@@ -10742,7 +10742,7 @@
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
-        <v>0.00298</v>
+        <v>0.00301</v>
       </c>
       <c r="M127" t="n">
         <v>0.019</v>
@@ -10809,10 +10809,10 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0.00698</v>
+        <v>0.007</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0097290596689857</v>
+        <v>0.0097472748673725</v>
       </c>
       <c r="H128" t="n">
         <v>0.037</v>
@@ -10823,7 +10823,7 @@
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
-        <v>0.00298</v>
+        <v>0.00301</v>
       </c>
       <c r="M128" t="n">
         <v>0.019</v>
@@ -10889,7 +10889,7 @@
         <v>0.015</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0178177289552232</v>
+        <v>0.0178195696308566</v>
       </c>
       <c r="H129" t="n">
         <v>0.049</v>
@@ -10966,7 +10966,7 @@
         <v>0.015</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0178177289552232</v>
+        <v>0.0178195696308566</v>
       </c>
       <c r="H130" t="n">
         <v>0.049</v>
@@ -11128,10 +11128,10 @@
         <v>2.8</v>
       </c>
       <c r="G132" t="n">
-        <v>3.17191324875621</v>
+        <v>3.18632290014403</v>
       </c>
       <c r="H132" t="n">
-        <v>8.567575686566769</v>
+        <v>9.302467907345781</v>
       </c>
       <c r="I132" t="n">
         <v>5.285</v>
@@ -11209,7 +11209,7 @@
         <v>0.013</v>
       </c>
       <c r="G133" t="n">
-        <v>0.01391198069252</v>
+        <v>0.0139121301175061</v>
       </c>
       <c r="H133" t="n">
         <v>0.038</v>
@@ -11290,7 +11290,7 @@
         <v>0.013</v>
       </c>
       <c r="G134" t="n">
-        <v>0.01391198069252</v>
+        <v>0.0139121301175061</v>
       </c>
       <c r="H134" t="n">
         <v>0.038</v>
@@ -11371,7 +11371,7 @@
         <v>11</v>
       </c>
       <c r="G135" t="n">
-        <v>25.9052902226285</v>
+        <v>25.9050049112283</v>
       </c>
       <c r="H135" t="n">
         <v>293</v>
@@ -11456,7 +11456,7 @@
         <v>11</v>
       </c>
       <c r="G136" t="n">
-        <v>25.9052902226285</v>
+        <v>25.9050049112283</v>
       </c>
       <c r="H136" t="n">
         <v>293</v>
@@ -11541,7 +11541,7 @@
         <v>11</v>
       </c>
       <c r="G137" t="n">
-        <v>25.9052902226285</v>
+        <v>25.9050049112283</v>
       </c>
       <c r="H137" t="n">
         <v>293</v>
@@ -11626,7 +11626,7 @@
         <v>11</v>
       </c>
       <c r="G138" t="n">
-        <v>25.9052902226285</v>
+        <v>25.9050049112283</v>
       </c>
       <c r="H138" t="n">
         <v>293</v>
@@ -11785,10 +11785,10 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0.00186</v>
+        <v>0.00189</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0031294743869587</v>
+        <v>0.0031479675305194</v>
       </c>
       <c r="H140" t="n">
         <v>0.0118402395355382</v>
@@ -11799,10 +11799,10 @@
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
-        <v>0.00228</v>
+        <v>0.00233</v>
       </c>
       <c r="M140" t="n">
-        <v>0.00497</v>
+        <v>0.00505</v>
       </c>
       <c r="N140" t="n">
         <v>0.00898</v>
@@ -11866,10 +11866,10 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0.00186</v>
+        <v>0.00189</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0031294743869587</v>
+        <v>0.0031479675305194</v>
       </c>
       <c r="H141" t="n">
         <v>0.0118402395355382</v>
@@ -11880,10 +11880,10 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
-        <v>0.00228</v>
+        <v>0.00233</v>
       </c>
       <c r="M141" t="n">
-        <v>0.00497</v>
+        <v>0.00505</v>
       </c>
       <c r="N141" t="n">
         <v>0.00898</v>
@@ -11950,7 +11950,7 @@
         <v>0.005</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0087770450561728</v>
+        <v>0.0087907993896486</v>
       </c>
       <c r="H142" t="n">
         <v>0.037</v>
@@ -11961,7 +11961,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
-        <v>0.00222</v>
+        <v>0.00229</v>
       </c>
       <c r="M142" t="n">
         <v>0.01651</v>
@@ -12031,7 +12031,7 @@
         <v>0.005</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0087770450561728</v>
+        <v>0.0087907993896486</v>
       </c>
       <c r="H143" t="n">
         <v>0.037</v>
@@ -12042,7 +12042,7 @@
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
-        <v>0.00222</v>
+        <v>0.00229</v>
       </c>
       <c r="M143" t="n">
         <v>0.01651</v>
@@ -12108,7 +12108,7 @@
         <v>0.014</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0159225976422965</v>
+        <v>0.0159240639432248</v>
       </c>
       <c r="H144" t="n">
         <v>0.049</v>
@@ -12185,7 +12185,7 @@
         <v>0.014</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0159225976422965</v>
+        <v>0.0159240639432248</v>
       </c>
       <c r="H145" t="n">
         <v>0.049</v>
@@ -12262,7 +12262,7 @@
         <v>0.081</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0874551436139607</v>
+        <v>0.0874500556419647</v>
       </c>
       <c r="H146" t="n">
         <v>0.34</v>
@@ -12339,7 +12339,7 @@
         <v>0.081</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0874551436139607</v>
+        <v>0.0874500556419647</v>
       </c>
       <c r="H147" t="n">
         <v>0.34</v>
@@ -12416,7 +12416,7 @@
         <v>0.019</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0208529366939385</v>
+        <v>0.0208527397314546</v>
       </c>
       <c r="H148" t="n">
         <v>0.049</v>
@@ -12493,7 +12493,7 @@
         <v>0.019</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0208529366939385</v>
+        <v>0.0208527397314546</v>
       </c>
       <c r="H149" t="n">
         <v>0.049</v>
@@ -12732,13 +12732,13 @@
         <v>2.5</v>
       </c>
       <c r="G152" t="n">
-        <v>3.26212535765564</v>
+        <v>3.14787892284126</v>
       </c>
       <c r="H152" t="n">
         <v>11.716</v>
       </c>
       <c r="I152" t="n">
-        <v>8.46082</v>
+        <v>7.321</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
@@ -12749,7 +12749,7 @@
         <v>4.5</v>
       </c>
       <c r="N152" t="n">
-        <v>6.3186</v>
+        <v>5.2414</v>
       </c>
       <c r="O152" t="n">
         <v>1807709</v>
@@ -12813,7 +12813,7 @@
         <v>0.013</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0152092768729937</v>
+        <v>0.0152091994866684</v>
       </c>
       <c r="H153" t="n">
         <v>0.038</v>
@@ -12894,7 +12894,7 @@
         <v>0.013</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0152092768729937</v>
+        <v>0.0152091994866684</v>
       </c>
       <c r="H154" t="n">
         <v>0.038</v>
@@ -13392,7 +13392,7 @@
         <v>0.00213</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0031539535534455</v>
+        <v>0.003164409777369</v>
       </c>
       <c r="H160" t="n">
         <v>0.0118402395355382</v>
@@ -13403,7 +13403,7 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
-        <v>0.0019</v>
+        <v>0.00193</v>
       </c>
       <c r="M160" t="n">
         <v>0.00495</v>
@@ -13473,7 +13473,7 @@
         <v>0.00213</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0031539535534455</v>
+        <v>0.003164409777369</v>
       </c>
       <c r="H161" t="n">
         <v>0.0118402395355382</v>
@@ -13484,7 +13484,7 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
-        <v>0.0019</v>
+        <v>0.00193</v>
       </c>
       <c r="M161" t="n">
         <v>0.00495</v>
@@ -13554,7 +13554,7 @@
         <v>0.0042</v>
       </c>
       <c r="G162" t="n">
-        <v>0.008197784380328201</v>
+        <v>0.008208295630272901</v>
       </c>
       <c r="H162" t="n">
         <v>0.037</v>
@@ -13565,7 +13565,7 @@
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
-        <v>0.00205</v>
+        <v>0.00208</v>
       </c>
       <c r="M162" t="n">
         <v>0.0167</v>
@@ -13635,7 +13635,7 @@
         <v>0.0042</v>
       </c>
       <c r="G163" t="n">
-        <v>0.008197784380328201</v>
+        <v>0.008208295630272901</v>
       </c>
       <c r="H163" t="n">
         <v>0.037</v>
@@ -13646,7 +13646,7 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
-        <v>0.00205</v>
+        <v>0.00208</v>
       </c>
       <c r="M163" t="n">
         <v>0.0167</v>
@@ -13943,7 +13943,7 @@
         <v>0.079</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0877298325167204</v>
+        <v>0.0877233208689443</v>
       </c>
       <c r="H167" t="n">
         <v>0.34</v>
@@ -14020,7 +14020,7 @@
         <v>0.079</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0877298325167204</v>
+        <v>0.0877233208689443</v>
       </c>
       <c r="H168" t="n">
         <v>0.34</v>
@@ -14097,7 +14097,7 @@
         <v>0.019</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0205726290212522</v>
+        <v>0.0205723767114467</v>
       </c>
       <c r="H169" t="n">
         <v>0.049</v>
@@ -14174,7 +14174,7 @@
         <v>0.019</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0205726290212522</v>
+        <v>0.0205723767114467</v>
       </c>
       <c r="H170" t="n">
         <v>0.049</v>
@@ -14410,16 +14410,16 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="G173" t="n">
-        <v>3.05674074227102</v>
+        <v>2.94249430745665</v>
       </c>
       <c r="H173" t="n">
         <v>11.716</v>
       </c>
       <c r="I173" t="n">
-        <v>8.28182</v>
+        <v>5.639</v>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
@@ -14427,10 +14427,10 @@
         <v>2.45</v>
       </c>
       <c r="M173" t="n">
-        <v>4.5</v>
+        <v>4.432</v>
       </c>
       <c r="N173" t="n">
-        <v>5.2414</v>
+        <v>5</v>
       </c>
       <c r="O173" t="n">
         <v>1807709</v>
@@ -14494,7 +14494,7 @@
         <v>0.0145</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0159057889251104</v>
+        <v>0.0159057128285573</v>
       </c>
       <c r="H174" t="n">
         <v>0.038</v>
@@ -14575,7 +14575,7 @@
         <v>0.0145</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0159057889251104</v>
+        <v>0.0159057128285573</v>
       </c>
       <c r="H175" t="n">
         <v>0.038</v>
@@ -15070,10 +15070,10 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0.00124</v>
+        <v>0.00128</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0029810559712132</v>
+        <v>0.002994175936508</v>
       </c>
       <c r="H181" t="n">
         <v>0.0118402395355382</v>
@@ -15084,7 +15084,7 @@
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
-        <v>0.0013</v>
+        <v>0.00136</v>
       </c>
       <c r="M181" t="n">
         <v>0.00538</v>
@@ -15151,10 +15151,10 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0.00124</v>
+        <v>0.00128</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0029810559712132</v>
+        <v>0.002994175936508</v>
       </c>
       <c r="H182" t="n">
         <v>0.0118402395355382</v>
@@ -15165,7 +15165,7 @@
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
-        <v>0.0013</v>
+        <v>0.00136</v>
       </c>
       <c r="M182" t="n">
         <v>0.00538</v>
@@ -15235,7 +15235,7 @@
         <v>0.00495</v>
       </c>
       <c r="G183" t="n">
-        <v>0.009039859881568101</v>
+        <v>0.009041879202624999</v>
       </c>
       <c r="H183" t="n">
         <v>0.08799999999999999</v>
@@ -15316,7 +15316,7 @@
         <v>0.00495</v>
       </c>
       <c r="G184" t="n">
-        <v>0.009039859881568101</v>
+        <v>0.009041879202624999</v>
       </c>
       <c r="H184" t="n">
         <v>0.08799999999999999</v>
@@ -15470,7 +15470,7 @@
         <v>0.012</v>
       </c>
       <c r="G186" t="n">
-        <v>0.014418509761954</v>
+        <v>0.0144215014028688</v>
       </c>
       <c r="H186" t="n">
         <v>0.095</v>
@@ -15547,7 +15547,7 @@
         <v>0.012</v>
       </c>
       <c r="G187" t="n">
-        <v>0.014418509761954</v>
+        <v>0.0144215014028688</v>
       </c>
       <c r="H187" t="n">
         <v>0.095</v>
@@ -15624,7 +15624,7 @@
         <v>0.074</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0889519224239962</v>
+        <v>0.0889470717811377</v>
       </c>
       <c r="H188" t="n">
         <v>0.34</v>
@@ -15701,7 +15701,7 @@
         <v>0.074</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0889519224239962</v>
+        <v>0.0889470717811377</v>
       </c>
       <c r="H189" t="n">
         <v>0.34</v>
@@ -15778,7 +15778,7 @@
         <v>0.019</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0202964185375646</v>
+        <v>0.0202961704329226</v>
       </c>
       <c r="H190" t="n">
         <v>0.043</v>
@@ -15855,7 +15855,7 @@
         <v>0.019</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0202964185375646</v>
+        <v>0.0202961704329226</v>
       </c>
       <c r="H191" t="n">
         <v>0.043</v>
@@ -16091,16 +16091,16 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="G194" t="n">
-        <v>2.99241104626763</v>
+        <v>2.91490190589161</v>
       </c>
       <c r="H194" t="n">
         <v>11.716</v>
       </c>
       <c r="I194" t="n">
-        <v>8.407249999999999</v>
+        <v>6.57897</v>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
@@ -16175,7 +16175,7 @@
         <v>0.015</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0168946911422661</v>
+        <v>0.0168945723349112</v>
       </c>
       <c r="H195" t="n">
         <v>0.038</v>
@@ -16256,7 +16256,7 @@
         <v>0.015</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0168946911422661</v>
+        <v>0.0168945723349112</v>
       </c>
       <c r="H196" t="n">
         <v>0.038</v>
@@ -16337,7 +16337,7 @@
         <v>16</v>
       </c>
       <c r="G197" t="n">
-        <v>42.9824831551923</v>
+        <v>42.9793608819463</v>
       </c>
       <c r="H197" t="n">
         <v>293</v>
@@ -16422,7 +16422,7 @@
         <v>16</v>
       </c>
       <c r="G198" t="n">
-        <v>42.9824831551923</v>
+        <v>42.9793608819463</v>
       </c>
       <c r="H198" t="n">
         <v>293</v>
@@ -16507,7 +16507,7 @@
         <v>16</v>
       </c>
       <c r="G199" t="n">
-        <v>42.9824831551923</v>
+        <v>42.9793608819463</v>
       </c>
       <c r="H199" t="n">
         <v>293</v>
@@ -16592,7 +16592,7 @@
         <v>16</v>
       </c>
       <c r="G200" t="n">
-        <v>42.9824831551923</v>
+        <v>42.9793608819463</v>
       </c>
       <c r="H200" t="n">
         <v>293</v>
@@ -16751,10 +16751,10 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>0.00132</v>
+        <v>0.00139</v>
       </c>
       <c r="G202" t="n">
-        <v>0.0024131228704746</v>
+        <v>0.0024398105509552</v>
       </c>
       <c r="H202" t="n">
         <v>0.0113667957136152</v>
@@ -16765,7 +16765,7 @@
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
-        <v>0.0013</v>
+        <v>0.00136</v>
       </c>
       <c r="M202" t="n">
         <v>0.00395</v>
@@ -16832,10 +16832,10 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>0.00132</v>
+        <v>0.00139</v>
       </c>
       <c r="G203" t="n">
-        <v>0.0024131228704746</v>
+        <v>0.0024398105509552</v>
       </c>
       <c r="H203" t="n">
         <v>0.0113667957136152</v>
@@ -16846,7 +16846,7 @@
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
-        <v>0.0013</v>
+        <v>0.00136</v>
       </c>
       <c r="M203" t="n">
         <v>0.00395</v>
@@ -16916,7 +16916,7 @@
         <v>0.0021</v>
       </c>
       <c r="G204" t="n">
-        <v>0.0072471877377882</v>
+        <v>0.0072539709024949</v>
       </c>
       <c r="H204" t="n">
         <v>0.08799999999999999</v>
@@ -16997,7 +16997,7 @@
         <v>0.0021</v>
       </c>
       <c r="G205" t="n">
-        <v>0.0072471877377882</v>
+        <v>0.0072539709024949</v>
       </c>
       <c r="H205" t="n">
         <v>0.08799999999999999</v>
@@ -17151,7 +17151,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G207" t="n">
-        <v>0.011870620511254</v>
+        <v>0.0118842585574082</v>
       </c>
       <c r="H207" t="n">
         <v>0.095</v>
@@ -17162,7 +17162,7 @@
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
-        <v>0.00443</v>
+        <v>0.00448</v>
       </c>
       <c r="M207" t="n">
         <v>0.02</v>
@@ -17228,7 +17228,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G208" t="n">
-        <v>0.011870620511254</v>
+        <v>0.0118842585574082</v>
       </c>
       <c r="H208" t="n">
         <v>0.095</v>
@@ -17239,7 +17239,7 @@
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
-        <v>0.00443</v>
+        <v>0.00448</v>
       </c>
       <c r="M208" t="n">
         <v>0.02</v>
@@ -17305,7 +17305,7 @@
         <v>0.0725</v>
       </c>
       <c r="G209" t="n">
-        <v>0.09261792190137649</v>
+        <v>0.09260815442536791</v>
       </c>
       <c r="H209" t="n">
         <v>0.34</v>
@@ -17382,7 +17382,7 @@
         <v>0.0725</v>
       </c>
       <c r="G210" t="n">
-        <v>0.09261792190137649</v>
+        <v>0.09260815442536791</v>
       </c>
       <c r="H210" t="n">
         <v>0.34</v>
@@ -17775,13 +17775,13 @@
         <v>2.5</v>
       </c>
       <c r="G215" t="n">
-        <v>3.17233648378571</v>
+        <v>3.10726703353685</v>
       </c>
       <c r="H215" t="n">
         <v>11.716</v>
       </c>
       <c r="I215" t="n">
-        <v>8.671860000000001</v>
+        <v>8.05758</v>
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
@@ -17792,7 +17792,7 @@
         <v>4.2</v>
       </c>
       <c r="N215" t="n">
-        <v>6.60968</v>
+        <v>6.03828</v>
       </c>
       <c r="O215" t="n">
         <v>1807709</v>
@@ -18018,7 +18018,7 @@
         <v>13</v>
       </c>
       <c r="G218" t="n">
-        <v>41.1350114119646</v>
+        <v>41.1303199807544</v>
       </c>
       <c r="H218" t="n">
         <v>293</v>
@@ -18103,7 +18103,7 @@
         <v>13</v>
       </c>
       <c r="G219" t="n">
-        <v>41.1350114119646</v>
+        <v>41.1303199807544</v>
       </c>
       <c r="H219" t="n">
         <v>293</v>
@@ -18188,7 +18188,7 @@
         <v>13</v>
       </c>
       <c r="G220" t="n">
-        <v>41.1350114119646</v>
+        <v>41.1303199807544</v>
       </c>
       <c r="H220" t="n">
         <v>293</v>
@@ -18273,7 +18273,7 @@
         <v>13</v>
       </c>
       <c r="G221" t="n">
-        <v>41.1350114119646</v>
+        <v>41.1303199807544</v>
       </c>
       <c r="H221" t="n">
         <v>293</v>
@@ -18432,10 +18432,10 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>0.00141</v>
+        <v>0.00145</v>
       </c>
       <c r="G223" t="n">
-        <v>0.0017593462098109</v>
+        <v>0.0018036273669249</v>
       </c>
       <c r="H223" t="n">
         <v>0.0101072527062006</v>
@@ -18446,10 +18446,10 @@
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
-        <v>0.0013</v>
+        <v>0.00136</v>
       </c>
       <c r="M223" t="n">
-        <v>0.00286</v>
+        <v>0.00298</v>
       </c>
       <c r="N223" t="n">
         <v>0.00376</v>
@@ -18513,10 +18513,10 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>0.00141</v>
+        <v>0.00145</v>
       </c>
       <c r="G224" t="n">
-        <v>0.0017593462098109</v>
+        <v>0.0018036273669249</v>
       </c>
       <c r="H224" t="n">
         <v>0.0101072527062006</v>
@@ -18527,10 +18527,10 @@
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
-        <v>0.0013</v>
+        <v>0.00136</v>
       </c>
       <c r="M224" t="n">
-        <v>0.00286</v>
+        <v>0.00298</v>
       </c>
       <c r="N224" t="n">
         <v>0.00376</v>
@@ -18597,7 +18597,7 @@
         <v>0.0021</v>
       </c>
       <c r="G225" t="n">
-        <v>0.0075877251816733</v>
+        <v>0.0075982718798093</v>
       </c>
       <c r="H225" t="n">
         <v>0.08799999999999999</v>
@@ -18678,7 +18678,7 @@
         <v>0.0021</v>
       </c>
       <c r="G226" t="n">
-        <v>0.0075877251816733</v>
+        <v>0.0075982718798093</v>
       </c>
       <c r="H226" t="n">
         <v>0.08799999999999999</v>
@@ -18832,7 +18832,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G228" t="n">
-        <v>0.0131029529782239</v>
+        <v>0.0131183049149992</v>
       </c>
       <c r="H228" t="n">
         <v>0.105</v>
@@ -18843,7 +18843,7 @@
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
-        <v>0.00443</v>
+        <v>0.00448</v>
       </c>
       <c r="M228" t="n">
         <v>0.0203</v>
@@ -18909,7 +18909,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G229" t="n">
-        <v>0.0131029529782239</v>
+        <v>0.0131183049149992</v>
       </c>
       <c r="H229" t="n">
         <v>0.105</v>
@@ -18920,7 +18920,7 @@
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
-        <v>0.00443</v>
+        <v>0.00448</v>
       </c>
       <c r="M229" t="n">
         <v>0.0203</v>
@@ -18986,7 +18986,7 @@
         <v>0.0725</v>
       </c>
       <c r="G230" t="n">
-        <v>0.0854745283122731</v>
+        <v>0.0854667085921635</v>
       </c>
       <c r="H230" t="n">
         <v>0.28</v>
@@ -19063,7 +19063,7 @@
         <v>0.0725</v>
       </c>
       <c r="G231" t="n">
-        <v>0.0854745283122731</v>
+        <v>0.0854667085921635</v>
       </c>
       <c r="H231" t="n">
         <v>0.28</v>
@@ -19453,16 +19453,16 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G236" t="n">
-        <v>3.47097164446899</v>
+        <v>3.40712991969653</v>
       </c>
       <c r="H236" t="n">
         <v>11.716</v>
       </c>
       <c r="I236" t="n">
-        <v>8.65432</v>
+        <v>7.9808</v>
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
@@ -19473,7 +19473,7 @@
         <v>4.2</v>
       </c>
       <c r="N236" t="n">
-        <v>6.39799</v>
+        <v>5.96104</v>
       </c>
       <c r="O236" t="n">
         <v>1807709</v>
@@ -19699,7 +19699,7 @@
         <v>12</v>
       </c>
       <c r="G239" t="n">
-        <v>37.1595256184346</v>
+        <v>37.1509922583392</v>
       </c>
       <c r="H239" t="n">
         <v>290</v>
@@ -19784,7 +19784,7 @@
         <v>12</v>
       </c>
       <c r="G240" t="n">
-        <v>37.1595256184346</v>
+        <v>37.1509922583392</v>
       </c>
       <c r="H240" t="n">
         <v>290</v>
@@ -19869,7 +19869,7 @@
         <v>12</v>
       </c>
       <c r="G241" t="n">
-        <v>37.1595256184346</v>
+        <v>37.1509922583392</v>
       </c>
       <c r="H241" t="n">
         <v>290</v>
@@ -19954,7 +19954,7 @@
         <v>12</v>
       </c>
       <c r="G242" t="n">
-        <v>37.1595256184346</v>
+        <v>37.1509922583392</v>
       </c>
       <c r="H242" t="n">
         <v>290</v>
@@ -20113,27 +20113,27 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>0.00191</v>
+        <v>0.00199</v>
       </c>
       <c r="G244" t="n">
-        <v>0.0021955928646057</v>
+        <v>0.0022665774435803</v>
       </c>
       <c r="H244" t="n">
         <v>0.0101072527062006</v>
       </c>
       <c r="I244" t="n">
-        <v>0.00461</v>
+        <v>0.00478</v>
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
-        <v>0.00172</v>
+        <v>0.0018</v>
       </c>
       <c r="M244" t="n">
-        <v>0.00374</v>
+        <v>0.0038</v>
       </c>
       <c r="N244" t="n">
-        <v>0.0044</v>
+        <v>0.0046</v>
       </c>
       <c r="O244" t="n">
         <v>1807709</v>
@@ -20194,27 +20194,27 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>0.00191</v>
+        <v>0.00199</v>
       </c>
       <c r="G245" t="n">
-        <v>0.0021955928646057</v>
+        <v>0.0022665774435803</v>
       </c>
       <c r="H245" t="n">
         <v>0.0101072527062006</v>
       </c>
       <c r="I245" t="n">
-        <v>0.00461</v>
+        <v>0.00478</v>
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
-        <v>0.00172</v>
+        <v>0.0018</v>
       </c>
       <c r="M245" t="n">
-        <v>0.00374</v>
+        <v>0.0038</v>
       </c>
       <c r="N245" t="n">
-        <v>0.0044</v>
+        <v>0.0046</v>
       </c>
       <c r="O245" t="n">
         <v>1807709</v>
@@ -20278,7 +20278,7 @@
         <v>0.0045</v>
       </c>
       <c r="G246" t="n">
-        <v>0.0082155623584037</v>
+        <v>0.008227936999539401</v>
       </c>
       <c r="H246" t="n">
         <v>0.08799999999999999</v>
@@ -20359,7 +20359,7 @@
         <v>0.0045</v>
       </c>
       <c r="G247" t="n">
-        <v>0.0082155623584037</v>
+        <v>0.008227936999539401</v>
       </c>
       <c r="H247" t="n">
         <v>0.08799999999999999</v>
@@ -20513,7 +20513,7 @@
         <v>0.01</v>
       </c>
       <c r="G249" t="n">
-        <v>0.0142951799976649</v>
+        <v>0.014313740502823</v>
       </c>
       <c r="H249" t="n">
         <v>0.105</v>
@@ -20590,7 +20590,7 @@
         <v>0.01</v>
       </c>
       <c r="G250" t="n">
-        <v>0.0142951799976649</v>
+        <v>0.014313740502823</v>
       </c>
       <c r="H250" t="n">
         <v>0.105</v>
@@ -20667,7 +20667,7 @@
         <v>0.0765</v>
       </c>
       <c r="G251" t="n">
-        <v>0.086720867748474</v>
+        <v>0.08670617464856591</v>
       </c>
       <c r="H251" t="n">
         <v>0.28</v>
@@ -20744,7 +20744,7 @@
         <v>0.0765</v>
       </c>
       <c r="G252" t="n">
-        <v>0.086720867748474</v>
+        <v>0.08670617464856591</v>
       </c>
       <c r="H252" t="n">
         <v>0.28</v>
@@ -21137,13 +21137,13 @@
         <v>3.5</v>
       </c>
       <c r="G257" t="n">
-        <v>3.48619913670435</v>
+        <v>3.54831414459465</v>
       </c>
       <c r="H257" t="n">
-        <v>8.706942911526379</v>
+        <v>9.002986637552571</v>
       </c>
       <c r="I257" t="n">
-        <v>5.385</v>
+        <v>6.4842</v>
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
@@ -21154,7 +21154,7 @@
         <v>4.2</v>
       </c>
       <c r="N257" t="n">
-        <v>5.226</v>
+        <v>5.326</v>
       </c>
       <c r="O257" t="n">
         <v>1807709</v>
@@ -21380,7 +21380,7 @@
         <v>12</v>
       </c>
       <c r="G260" t="n">
-        <v>31.4479595963831</v>
+        <v>31.4346691689463</v>
       </c>
       <c r="H260" t="n">
         <v>290</v>
@@ -21465,7 +21465,7 @@
         <v>12</v>
       </c>
       <c r="G261" t="n">
-        <v>31.4479595963831</v>
+        <v>31.4346691689463</v>
       </c>
       <c r="H261" t="n">
         <v>290</v>
@@ -21550,7 +21550,7 @@
         <v>12</v>
       </c>
       <c r="G262" t="n">
-        <v>31.4479595963831</v>
+        <v>31.4346691689463</v>
       </c>
       <c r="H262" t="n">
         <v>290</v>
@@ -21635,7 +21635,7 @@
         <v>12</v>
       </c>
       <c r="G263" t="n">
-        <v>31.4479595963831</v>
+        <v>31.4346691689463</v>
       </c>
       <c r="H263" t="n">
         <v>290</v>
@@ -21794,27 +21794,27 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>0.00222</v>
+        <v>0.00231</v>
       </c>
       <c r="G265" t="n">
-        <v>0.0031198758102901</v>
+        <v>0.0032301652180339</v>
       </c>
       <c r="H265" t="n">
         <v>0.0101072527062006</v>
       </c>
       <c r="I265" t="n">
-        <v>0.00793</v>
+        <v>0.008189999999999999</v>
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
-        <v>0.00197</v>
+        <v>0.00206</v>
       </c>
       <c r="M265" t="n">
-        <v>0.00489</v>
+        <v>0.00505</v>
       </c>
       <c r="N265" t="n">
-        <v>0.00671</v>
+        <v>0.00693</v>
       </c>
       <c r="O265" t="n">
         <v>1807709</v>
@@ -21875,27 +21875,27 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>0.00222</v>
+        <v>0.00231</v>
       </c>
       <c r="G266" t="n">
-        <v>0.0031198758102901</v>
+        <v>0.0032301652180339</v>
       </c>
       <c r="H266" t="n">
         <v>0.0101072527062006</v>
       </c>
       <c r="I266" t="n">
-        <v>0.00793</v>
+        <v>0.008189999999999999</v>
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
-        <v>0.00197</v>
+        <v>0.00206</v>
       </c>
       <c r="M266" t="n">
-        <v>0.00489</v>
+        <v>0.00505</v>
       </c>
       <c r="N266" t="n">
-        <v>0.00671</v>
+        <v>0.00693</v>
       </c>
       <c r="O266" t="n">
         <v>1807709</v>
@@ -21959,7 +21959,7 @@
         <v>0.006</v>
       </c>
       <c r="G267" t="n">
-        <v>0.008774461195066301</v>
+        <v>0.0087879486157291</v>
       </c>
       <c r="H267" t="n">
         <v>0.08799999999999999</v>
@@ -22040,7 +22040,7 @@
         <v>0.006</v>
       </c>
       <c r="G268" t="n">
-        <v>0.008774461195066301</v>
+        <v>0.0087879486157291</v>
       </c>
       <c r="H268" t="n">
         <v>0.08799999999999999</v>
@@ -22194,7 +22194,7 @@
         <v>0.0125</v>
       </c>
       <c r="G270" t="n">
-        <v>0.0156919415638081</v>
+        <v>0.0157133008201079</v>
       </c>
       <c r="H270" t="n">
         <v>0.105</v>
@@ -22271,7 +22271,7 @@
         <v>0.0125</v>
       </c>
       <c r="G271" t="n">
-        <v>0.0156919415638081</v>
+        <v>0.0157133008201079</v>
       </c>
       <c r="H271" t="n">
         <v>0.105</v>
@@ -22348,7 +22348,7 @@
         <v>0.0745</v>
       </c>
       <c r="G272" t="n">
-        <v>0.08415896728921229</v>
+        <v>0.08413141523258701</v>
       </c>
       <c r="H272" t="n">
         <v>0.28</v>
@@ -22425,7 +22425,7 @@
         <v>0.0745</v>
       </c>
       <c r="G273" t="n">
-        <v>0.08415896728921229</v>
+        <v>0.08413141523258701</v>
       </c>
       <c r="H273" t="n">
         <v>0.28</v>
@@ -22818,13 +22818,13 @@
         <v>3.7</v>
       </c>
       <c r="G278" t="n">
-        <v>3.84670296625635</v>
+        <v>3.91001249352916</v>
       </c>
       <c r="H278" t="n">
-        <v>8.706942911526379</v>
+        <v>9.002986637552571</v>
       </c>
       <c r="I278" t="n">
-        <v>5.94</v>
+        <v>6.60797</v>
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
@@ -22832,10 +22832,10 @@
         <v>3.7</v>
       </c>
       <c r="M278" t="n">
-        <v>4.932</v>
+        <v>5.066</v>
       </c>
       <c r="N278" t="n">
-        <v>5.334</v>
+        <v>5.604</v>
       </c>
       <c r="O278" t="n">
         <v>1807709</v>
@@ -23061,7 +23061,7 @@
         <v>8</v>
       </c>
       <c r="G281" t="n">
-        <v>48.2414479257553</v>
+        <v>48.2221595294446</v>
       </c>
       <c r="H281" t="n">
         <v>1500</v>
@@ -23146,7 +23146,7 @@
         <v>8</v>
       </c>
       <c r="G282" t="n">
-        <v>48.2414479257553</v>
+        <v>48.2221595294446</v>
       </c>
       <c r="H282" t="n">
         <v>1500</v>
@@ -23231,7 +23231,7 @@
         <v>8</v>
       </c>
       <c r="G283" t="n">
-        <v>48.2414479257553</v>
+        <v>48.2221595294446</v>
       </c>
       <c r="H283" t="n">
         <v>1500</v>
@@ -23316,7 +23316,7 @@
         <v>8</v>
       </c>
       <c r="G284" t="n">
-        <v>48.2414479257553</v>
+        <v>48.2221595294446</v>
       </c>
       <c r="H284" t="n">
         <v>1500</v>
@@ -23475,27 +23475,27 @@
         </is>
       </c>
       <c r="F286" t="n">
-        <v>0.00277</v>
+        <v>0.00288</v>
       </c>
       <c r="G286" t="n">
-        <v>0.0043030315751417</v>
+        <v>0.0044135708382209</v>
       </c>
       <c r="H286" t="n">
         <v>0.0582312503221982</v>
       </c>
       <c r="I286" t="n">
-        <v>0.0083</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
-        <v>0.00256</v>
+        <v>0.00262</v>
       </c>
       <c r="M286" t="n">
-        <v>0.00504</v>
+        <v>0.00521</v>
       </c>
       <c r="N286" t="n">
-        <v>0.00686</v>
+        <v>0.00706</v>
       </c>
       <c r="O286" t="n">
         <v>1807709</v>
@@ -23556,27 +23556,27 @@
         </is>
       </c>
       <c r="F287" t="n">
-        <v>0.00277</v>
+        <v>0.00288</v>
       </c>
       <c r="G287" t="n">
-        <v>0.0043030315751417</v>
+        <v>0.0044135708382209</v>
       </c>
       <c r="H287" t="n">
         <v>0.0582312503221982</v>
       </c>
       <c r="I287" t="n">
-        <v>0.0083</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
-        <v>0.00256</v>
+        <v>0.00262</v>
       </c>
       <c r="M287" t="n">
-        <v>0.00504</v>
+        <v>0.00521</v>
       </c>
       <c r="N287" t="n">
-        <v>0.00686</v>
+        <v>0.00706</v>
       </c>
       <c r="O287" t="n">
         <v>1807709</v>
@@ -23637,10 +23637,10 @@
         </is>
       </c>
       <c r="F288" t="n">
-        <v>0.00638</v>
+        <v>0.00649</v>
       </c>
       <c r="G288" t="n">
-        <v>0.0086194918580874</v>
+        <v>0.0086337812580802</v>
       </c>
       <c r="H288" t="n">
         <v>0.035</v>
@@ -23718,10 +23718,10 @@
         </is>
       </c>
       <c r="F289" t="n">
-        <v>0.00638</v>
+        <v>0.00649</v>
       </c>
       <c r="G289" t="n">
-        <v>0.0086194918580874</v>
+        <v>0.0086337812580802</v>
       </c>
       <c r="H289" t="n">
         <v>0.035</v>
@@ -23875,7 +23875,7 @@
         <v>0.013</v>
       </c>
       <c r="G291" t="n">
-        <v>0.0164893892353729</v>
+        <v>0.0165092639752856</v>
       </c>
       <c r="H291" t="n">
         <v>0.105</v>
@@ -23952,7 +23952,7 @@
         <v>0.013</v>
       </c>
       <c r="G292" t="n">
-        <v>0.0164893892353729</v>
+        <v>0.0165092639752856</v>
       </c>
       <c r="H292" t="n">
         <v>0.105</v>
@@ -24029,7 +24029,7 @@
         <v>0.075</v>
       </c>
       <c r="G293" t="n">
-        <v>0.0814575523681506</v>
+        <v>0.0814290502406072</v>
       </c>
       <c r="H293" t="n">
         <v>0.28</v>
@@ -24106,7 +24106,7 @@
         <v>0.075</v>
       </c>
       <c r="G294" t="n">
-        <v>0.0814575523681506</v>
+        <v>0.0814290502406072</v>
       </c>
       <c r="H294" t="n">
         <v>0.28</v>
@@ -24499,10 +24499,10 @@
         <v>3.7</v>
       </c>
       <c r="G299" t="n">
-        <v>3.72906644150936</v>
+        <v>3.74282950292665</v>
       </c>
       <c r="H299" t="n">
-        <v>8.356122750939729</v>
+        <v>9.002986637552571</v>
       </c>
       <c r="I299" t="n">
         <v>5.49</v>
@@ -24742,7 +24742,7 @@
         <v>8</v>
       </c>
       <c r="G302" t="n">
-        <v>47.4040645326735</v>
+        <v>47.3775171133504</v>
       </c>
       <c r="H302" t="n">
         <v>1500</v>
@@ -24827,7 +24827,7 @@
         <v>8</v>
       </c>
       <c r="G303" t="n">
-        <v>47.4040645326735</v>
+        <v>47.3775171133504</v>
       </c>
       <c r="H303" t="n">
         <v>1500</v>
@@ -24912,7 +24912,7 @@
         <v>8</v>
       </c>
       <c r="G304" t="n">
-        <v>47.4040645326735</v>
+        <v>47.3775171133504</v>
       </c>
       <c r="H304" t="n">
         <v>1500</v>
@@ -24997,7 +24997,7 @@
         <v>8</v>
       </c>
       <c r="G305" t="n">
-        <v>47.4040645326735</v>
+        <v>47.3775171133504</v>
       </c>
       <c r="H305" t="n">
         <v>1500</v>
@@ -25156,27 +25156,27 @@
         </is>
       </c>
       <c r="F307" t="n">
-        <v>0.00288</v>
+        <v>0.003</v>
       </c>
       <c r="G307" t="n">
-        <v>0.0043140599424921</v>
+        <v>0.0044051562104272</v>
       </c>
       <c r="H307" t="n">
         <v>0.0582312503221982</v>
       </c>
       <c r="I307" t="n">
-        <v>0.0083</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
-        <v>0.00294</v>
+        <v>0.00306</v>
       </c>
       <c r="M307" t="n">
-        <v>0.00504</v>
+        <v>0.00521</v>
       </c>
       <c r="N307" t="n">
-        <v>0.00686</v>
+        <v>0.00706</v>
       </c>
       <c r="O307" t="n">
         <v>1807709</v>
@@ -25237,27 +25237,27 @@
         </is>
       </c>
       <c r="F308" t="n">
-        <v>0.00288</v>
+        <v>0.003</v>
       </c>
       <c r="G308" t="n">
-        <v>0.0043140599424921</v>
+        <v>0.0044051562104272</v>
       </c>
       <c r="H308" t="n">
         <v>0.0582312503221982</v>
       </c>
       <c r="I308" t="n">
-        <v>0.0083</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
-        <v>0.00294</v>
+        <v>0.00306</v>
       </c>
       <c r="M308" t="n">
-        <v>0.00504</v>
+        <v>0.00521</v>
       </c>
       <c r="N308" t="n">
-        <v>0.00686</v>
+        <v>0.00706</v>
       </c>
       <c r="O308" t="n">
         <v>1807709</v>
@@ -25321,7 +25321,7 @@
         <v>0.008</v>
       </c>
       <c r="G309" t="n">
-        <v>0.0097711061455168</v>
+        <v>0.009780867331770899</v>
       </c>
       <c r="H309" t="n">
         <v>0.035</v>
@@ -25402,7 +25402,7 @@
         <v>0.008</v>
       </c>
       <c r="G310" t="n">
-        <v>0.0097711061455168</v>
+        <v>0.009780867331770899</v>
       </c>
       <c r="H310" t="n">
         <v>0.035</v>
@@ -25556,7 +25556,7 @@
         <v>0.013</v>
       </c>
       <c r="G312" t="n">
-        <v>0.017183714845628</v>
+        <v>0.0171931229414932</v>
       </c>
       <c r="H312" t="n">
         <v>0.105</v>
@@ -25633,7 +25633,7 @@
         <v>0.013</v>
       </c>
       <c r="G313" t="n">
-        <v>0.017183714845628</v>
+        <v>0.0171931229414932</v>
       </c>
       <c r="H313" t="n">
         <v>0.105</v>
@@ -25710,7 +25710,7 @@
         <v>0.075</v>
       </c>
       <c r="G314" t="n">
-        <v>0.083777005838213</v>
+        <v>0.08375659307630021</v>
       </c>
       <c r="H314" t="n">
         <v>0.36</v>
@@ -25787,7 +25787,7 @@
         <v>0.075</v>
       </c>
       <c r="G315" t="n">
-        <v>0.083777005838213</v>
+        <v>0.08375659307630021</v>
       </c>
       <c r="H315" t="n">
         <v>0.36</v>
@@ -26099,7 +26099,7 @@
         <v>2.3</v>
       </c>
       <c r="G319" t="n">
-        <v>3.86772615377748</v>
+        <v>3.86766127459193</v>
       </c>
       <c r="H319" t="n">
         <v>27</v>
@@ -26423,7 +26423,7 @@
         <v>12</v>
       </c>
       <c r="G323" t="n">
-        <v>57.92065184867</v>
+        <v>57.8875130739262</v>
       </c>
       <c r="H323" t="n">
         <v>1500</v>
@@ -26508,7 +26508,7 @@
         <v>12</v>
       </c>
       <c r="G324" t="n">
-        <v>57.92065184867</v>
+        <v>57.8875130739262</v>
       </c>
       <c r="H324" t="n">
         <v>1500</v>
@@ -26593,7 +26593,7 @@
         <v>12</v>
       </c>
       <c r="G325" t="n">
-        <v>57.92065184867</v>
+        <v>57.8875130739262</v>
       </c>
       <c r="H325" t="n">
         <v>1500</v>
@@ -26678,7 +26678,7 @@
         <v>12</v>
       </c>
       <c r="G326" t="n">
-        <v>57.92065184867</v>
+        <v>57.8875130739262</v>
       </c>
       <c r="H326" t="n">
         <v>1500</v>
@@ -26837,27 +26837,27 @@
         </is>
       </c>
       <c r="F328" t="n">
-        <v>0.00313</v>
+        <v>0.00324</v>
       </c>
       <c r="G328" t="n">
-        <v>0.0044712419251743</v>
+        <v>0.0045415948092858</v>
       </c>
       <c r="H328" t="n">
         <v>0.0582312503221982</v>
       </c>
       <c r="I328" t="n">
-        <v>0.00902</v>
+        <v>0.009090000000000001</v>
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
-        <v>0.00453</v>
+        <v>0.00469</v>
       </c>
       <c r="M328" t="n">
-        <v>0.0055</v>
+        <v>0.00569</v>
       </c>
       <c r="N328" t="n">
-        <v>0.00732</v>
+        <v>0.00735</v>
       </c>
       <c r="O328" t="n">
         <v>1807709</v>
@@ -26918,27 +26918,27 @@
         </is>
       </c>
       <c r="F329" t="n">
-        <v>0.00313</v>
+        <v>0.00324</v>
       </c>
       <c r="G329" t="n">
-        <v>0.0044712419251743</v>
+        <v>0.0045415948092858</v>
       </c>
       <c r="H329" t="n">
         <v>0.0582312503221982</v>
       </c>
       <c r="I329" t="n">
-        <v>0.00902</v>
+        <v>0.009090000000000001</v>
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
-        <v>0.00453</v>
+        <v>0.00469</v>
       </c>
       <c r="M329" t="n">
-        <v>0.0055</v>
+        <v>0.00569</v>
       </c>
       <c r="N329" t="n">
-        <v>0.00732</v>
+        <v>0.00735</v>
       </c>
       <c r="O329" t="n">
         <v>1807709</v>
@@ -27002,7 +27002,7 @@
         <v>0.008</v>
       </c>
       <c r="G330" t="n">
-        <v>0.0102860281870343</v>
+        <v>0.0102920311284423</v>
       </c>
       <c r="H330" t="n">
         <v>0.035</v>
@@ -27083,7 +27083,7 @@
         <v>0.008</v>
       </c>
       <c r="G331" t="n">
-        <v>0.0102860281870343</v>
+        <v>0.0102920311284423</v>
       </c>
       <c r="H331" t="n">
         <v>0.035</v>
@@ -27237,7 +27237,7 @@
         <v>0.013</v>
       </c>
       <c r="G333" t="n">
-        <v>0.0163542242012519</v>
+        <v>0.0163618893575023</v>
       </c>
       <c r="H333" t="n">
         <v>0.079</v>
@@ -27314,7 +27314,7 @@
         <v>0.013</v>
       </c>
       <c r="G334" t="n">
-        <v>0.0163542242012519</v>
+        <v>0.0163618893575023</v>
       </c>
       <c r="H334" t="n">
         <v>0.079</v>
@@ -27391,7 +27391,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G335" t="n">
-        <v>0.0867080403209716</v>
+        <v>0.0866876275590588</v>
       </c>
       <c r="H335" t="n">
         <v>0.36</v>
@@ -27468,7 +27468,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G336" t="n">
-        <v>0.0867080403209716</v>
+        <v>0.0866876275590588</v>
       </c>
       <c r="H336" t="n">
         <v>0.36</v>
@@ -27673,6 +27673,1687 @@
         </is>
       </c>
     </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F339" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.6812</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="I339" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>0.6725</v>
+      </c>
+      <c r="M339" t="n">
+        <v>0.70845</v>
+      </c>
+      <c r="N339" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="O339" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="P339" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="Q339" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R339" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S339" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T339" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F340" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G340" t="n">
+        <v>4.03857964193887</v>
+      </c>
+      <c r="H340" t="n">
+        <v>27</v>
+      </c>
+      <c r="I340" t="n">
+        <v>13.325</v>
+      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>2.225</v>
+      </c>
+      <c r="M340" t="n">
+        <v>6.085</v>
+      </c>
+      <c r="N340" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="O340" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="P340" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="Q340" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R340" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S340" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T340" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U340" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 1)</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F341" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G341" t="n">
+        <v>3.68771428571429</v>
+      </c>
+      <c r="H341" t="n">
+        <v>6</v>
+      </c>
+      <c r="I341" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="M341" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="N341" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O341" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="P341" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="Q341" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R341" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S341" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T341" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U341" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F342" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.0184827586206897</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="I342" t="n">
+        <v>0.0316</v>
+      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="M342" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="N342" t="n">
+        <v>0.02786</v>
+      </c>
+      <c r="O342" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="P342" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="Q342" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R342" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S342" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T342" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U342" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F343" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.0184827586206897</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="I343" t="n">
+        <v>0.0316</v>
+      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="M343" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="N343" t="n">
+        <v>0.02786</v>
+      </c>
+      <c r="O343" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="P343" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="Q343" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R343" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S343" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T343" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U343" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F344" t="n">
+        <v>12</v>
+      </c>
+      <c r="G344" t="n">
+        <v>61.8318610603159</v>
+      </c>
+      <c r="H344" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I344" t="n">
+        <v>262.4</v>
+      </c>
+      <c r="J344" t="n">
+        <v>1.72413793103448</v>
+      </c>
+      <c r="K344" t="n">
+        <v>5.17241379310345</v>
+      </c>
+      <c r="L344" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="M344" t="n">
+        <v>64.23999999999999</v>
+      </c>
+      <c r="N344" t="n">
+        <v>107.62</v>
+      </c>
+      <c r="O344" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="P344" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="Q344" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R344" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S344" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T344" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U344" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F345" t="n">
+        <v>12</v>
+      </c>
+      <c r="G345" t="n">
+        <v>61.8318610603159</v>
+      </c>
+      <c r="H345" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I345" t="n">
+        <v>262.4</v>
+      </c>
+      <c r="J345" t="n">
+        <v>1.72413793103448</v>
+      </c>
+      <c r="K345" t="n">
+        <v>5.17241379310345</v>
+      </c>
+      <c r="L345" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="M345" t="n">
+        <v>64.23999999999999</v>
+      </c>
+      <c r="N345" t="n">
+        <v>107.62</v>
+      </c>
+      <c r="O345" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="P345" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="Q345" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S345" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T345" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U345" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F346" t="n">
+        <v>12</v>
+      </c>
+      <c r="G346" t="n">
+        <v>61.8318610603159</v>
+      </c>
+      <c r="H346" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I346" t="n">
+        <v>262.4</v>
+      </c>
+      <c r="J346" t="n">
+        <v>1.72413793103448</v>
+      </c>
+      <c r="K346" t="n">
+        <v>5.17241379310345</v>
+      </c>
+      <c r="L346" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="M346" t="n">
+        <v>64.23999999999999</v>
+      </c>
+      <c r="N346" t="n">
+        <v>107.62</v>
+      </c>
+      <c r="O346" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="P346" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="Q346" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S346" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T346" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U346" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F347" t="n">
+        <v>12</v>
+      </c>
+      <c r="G347" t="n">
+        <v>61.8318610603159</v>
+      </c>
+      <c r="H347" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I347" t="n">
+        <v>262.4</v>
+      </c>
+      <c r="J347" t="n">
+        <v>1.72413793103448</v>
+      </c>
+      <c r="K347" t="n">
+        <v>5.17241379310345</v>
+      </c>
+      <c r="L347" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="M347" t="n">
+        <v>64.23999999999999</v>
+      </c>
+      <c r="N347" t="n">
+        <v>107.62</v>
+      </c>
+      <c r="O347" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="P347" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="Q347" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S347" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T347" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U347" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F348" t="n">
+        <v>135.2</v>
+      </c>
+      <c r="G348" t="n">
+        <v>137.374</v>
+      </c>
+      <c r="H348" t="n">
+        <v>146.67</v>
+      </c>
+      <c r="I348" t="n">
+        <v>146.67</v>
+      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>140</v>
+      </c>
+      <c r="M348" t="n">
+        <v>146.4355</v>
+      </c>
+      <c r="N348" t="n">
+        <v>146.67</v>
+      </c>
+      <c r="O348" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="P348" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="Q348" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R348" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S348" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T348" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F349" t="n">
+        <v>0.00285</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.0044490159090459</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0.0582312503221982</v>
+      </c>
+      <c r="I349" t="n">
+        <v>0.009090000000000001</v>
+      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>0.00257</v>
+      </c>
+      <c r="M349" t="n">
+        <v>0.00651</v>
+      </c>
+      <c r="N349" t="n">
+        <v>0.00827</v>
+      </c>
+      <c r="O349" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="P349" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="Q349" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R349" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S349" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T349" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U349" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F350" t="n">
+        <v>0.00285</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.0044490159090459</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0.0582312503221982</v>
+      </c>
+      <c r="I350" t="n">
+        <v>0.009090000000000001</v>
+      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>0.00257</v>
+      </c>
+      <c r="M350" t="n">
+        <v>0.00651</v>
+      </c>
+      <c r="N350" t="n">
+        <v>0.00827</v>
+      </c>
+      <c r="O350" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="P350" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="Q350" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S350" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T350" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U350" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F351" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.0110527223838939</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I351" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="M351" t="n">
+        <v>0.02164</v>
+      </c>
+      <c r="N351" t="n">
+        <v>0.02858</v>
+      </c>
+      <c r="O351" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="P351" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="Q351" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R351" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S351" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T351" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U351" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F352" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.0110527223838939</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I352" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="M352" t="n">
+        <v>0.02164</v>
+      </c>
+      <c r="N352" t="n">
+        <v>0.02858</v>
+      </c>
+      <c r="O352" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="P352" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="Q352" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R352" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S352" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T352" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U352" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F353" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="G353" t="n">
+        <v>7.902</v>
+      </c>
+      <c r="H353" t="n">
+        <v>8.137</v>
+      </c>
+      <c r="I353" t="n">
+        <v>8.137</v>
+      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="M353" t="n">
+        <v>8.0936</v>
+      </c>
+      <c r="N353" t="n">
+        <v>8.137</v>
+      </c>
+      <c r="O353" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="P353" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="Q353" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R353" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S353" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T353" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr"/>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F354" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.0175953446919188</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="I354" t="n">
+        <v>0.04155</v>
+      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="M354" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="N354" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="O354" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="P354" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="Q354" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R354" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S354" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T354" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U354" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr"/>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F355" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.0175953446919188</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="I355" t="n">
+        <v>0.04155</v>
+      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="M355" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="N355" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="O355" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="P355" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="Q355" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R355" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S355" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T355" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U355" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr"/>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F356" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.0844743868110563</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I356" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M356" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N356" t="n">
+        <v>0.1286</v>
+      </c>
+      <c r="O356" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="P356" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="Q356" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R356" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S356" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T356" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U356" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr"/>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F357" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.0844743868110563</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I357" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M357" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N357" t="n">
+        <v>0.1286</v>
+      </c>
+      <c r="O357" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="P357" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="Q357" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R357" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S357" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T357" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U357" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr"/>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F358" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.0251206896551724</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="I358" t="n">
+        <v>0.0482</v>
+      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="M358" t="n">
+        <v>0.02964</v>
+      </c>
+      <c r="N358" t="n">
+        <v>0.04602</v>
+      </c>
+      <c r="O358" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="P358" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="Q358" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R358" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S358" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T358" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U358" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr"/>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F359" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.0251206896551724</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="I359" t="n">
+        <v>0.0482</v>
+      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="M359" t="n">
+        <v>0.02964</v>
+      </c>
+      <c r="N359" t="n">
+        <v>0.04602</v>
+      </c>
+      <c r="O359" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="P359" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="Q359" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R359" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S359" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T359" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U359" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MangawheroatDOCHeadquarters_5ea518c1ad.xlsx
+++ b/state_results/Rivers/MangawheroatDOCHeadquarters_5ea518c1ad.xlsx
@@ -8933,13 +8933,13 @@
         <v>3.62</v>
       </c>
       <c r="G105" t="n">
-        <v>3.73878928733373</v>
+        <v>3.68049814694566</v>
       </c>
       <c r="H105" t="n">
-        <v>9.302467907345781</v>
+        <v>7.5</v>
       </c>
       <c r="I105" t="n">
-        <v>7.39</v>
+        <v>7.38567</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -8950,7 +8950,7 @@
         <v>5</v>
       </c>
       <c r="N105" t="n">
-        <v>5.344</v>
+        <v>5.34391</v>
       </c>
       <c r="O105" t="n">
         <v>1807709</v>
@@ -9909,13 +9909,13 @@
         <v>3.5</v>
       </c>
       <c r="G117" t="n">
-        <v>3.49762116847185</v>
+        <v>3.45354737939794</v>
       </c>
       <c r="H117" t="n">
-        <v>9.302467907345781</v>
+        <v>7.5</v>
       </c>
       <c r="I117" t="n">
-        <v>6.29</v>
+        <v>6.28795</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -11128,10 +11128,10 @@
         <v>2.8</v>
       </c>
       <c r="G132" t="n">
-        <v>3.18632290014403</v>
+        <v>3.15089103049638</v>
       </c>
       <c r="H132" t="n">
-        <v>9.302467907345781</v>
+        <v>7.5</v>
       </c>
       <c r="I132" t="n">
         <v>5.285</v>
@@ -12732,13 +12732,13 @@
         <v>2.5</v>
       </c>
       <c r="G152" t="n">
-        <v>3.14787892284126</v>
+        <v>3.11504785338706</v>
       </c>
       <c r="H152" t="n">
         <v>11.716</v>
       </c>
       <c r="I152" t="n">
-        <v>7.321</v>
+        <v>7.3169</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
@@ -14413,7 +14413,7 @@
         <v>2.3</v>
       </c>
       <c r="G173" t="n">
-        <v>2.94249430745665</v>
+        <v>2.90966323800245</v>
       </c>
       <c r="H173" t="n">
         <v>11.716</v>
@@ -16094,13 +16094,13 @@
         <v>2.45</v>
       </c>
       <c r="G194" t="n">
-        <v>2.91490190589161</v>
+        <v>2.85955516133674</v>
       </c>
       <c r="H194" t="n">
         <v>11.716</v>
       </c>
       <c r="I194" t="n">
-        <v>6.57897</v>
+        <v>5.619</v>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
@@ -16108,10 +16108,10 @@
         <v>2.45</v>
       </c>
       <c r="M194" t="n">
-        <v>4.132</v>
+        <v>4</v>
       </c>
       <c r="N194" t="n">
-        <v>5.1094</v>
+        <v>4.71486</v>
       </c>
       <c r="O194" t="n">
         <v>1807709</v>
@@ -17775,13 +17775,13 @@
         <v>2.5</v>
       </c>
       <c r="G215" t="n">
-        <v>3.10726703353685</v>
+        <v>3.03887832237879</v>
       </c>
       <c r="H215" t="n">
         <v>11.716</v>
       </c>
       <c r="I215" t="n">
-        <v>8.05758</v>
+        <v>8.03607</v>
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
@@ -17789,10 +17789,10 @@
         <v>2.5</v>
       </c>
       <c r="M215" t="n">
-        <v>4.2</v>
+        <v>4.132</v>
       </c>
       <c r="N215" t="n">
-        <v>6.03828</v>
+        <v>5.1094</v>
       </c>
       <c r="O215" t="n">
         <v>1807709</v>
@@ -19456,13 +19456,13 @@
         <v>3</v>
       </c>
       <c r="G236" t="n">
-        <v>3.40712991969653</v>
+        <v>3.34003156157919</v>
       </c>
       <c r="H236" t="n">
         <v>11.716</v>
       </c>
       <c r="I236" t="n">
-        <v>7.9808</v>
+        <v>7.90684</v>
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
@@ -19473,7 +19473,7 @@
         <v>4.2</v>
       </c>
       <c r="N236" t="n">
-        <v>5.96104</v>
+        <v>5.4066</v>
       </c>
       <c r="O236" t="n">
         <v>1807709</v>
@@ -21137,13 +21137,13 @@
         <v>3.5</v>
       </c>
       <c r="G257" t="n">
-        <v>3.54831414459465</v>
+        <v>3.47933258382802</v>
       </c>
       <c r="H257" t="n">
-        <v>9.002986637552571</v>
+        <v>8.324804374186231</v>
       </c>
       <c r="I257" t="n">
-        <v>6.4842</v>
+        <v>5.385</v>
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
@@ -21154,7 +21154,7 @@
         <v>4.2</v>
       </c>
       <c r="N257" t="n">
-        <v>5.326</v>
+        <v>5.226</v>
       </c>
       <c r="O257" t="n">
         <v>1807709</v>
@@ -22818,13 +22818,13 @@
         <v>3.7</v>
       </c>
       <c r="G278" t="n">
-        <v>3.91001249352916</v>
+        <v>3.83970436428625</v>
       </c>
       <c r="H278" t="n">
-        <v>9.002986637552571</v>
+        <v>8.324804374186231</v>
       </c>
       <c r="I278" t="n">
-        <v>6.60797</v>
+        <v>5.94</v>
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
@@ -22832,10 +22832,10 @@
         <v>3.7</v>
       </c>
       <c r="M278" t="n">
-        <v>5.066</v>
+        <v>4.932</v>
       </c>
       <c r="N278" t="n">
-        <v>5.604</v>
+        <v>5.334</v>
       </c>
       <c r="O278" t="n">
         <v>1807709</v>
@@ -24499,10 +24499,10 @@
         <v>3.7</v>
       </c>
       <c r="G299" t="n">
-        <v>3.74282950292665</v>
+        <v>3.72840009306779</v>
       </c>
       <c r="H299" t="n">
-        <v>9.002986637552571</v>
+        <v>8.324804374186231</v>
       </c>
       <c r="I299" t="n">
         <v>5.49</v>
